--- a/data/October datasets/Iran-potato - Train.xlsx
+++ b/data/October datasets/Iran-potato - Train.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.rasooli\Downloads\data\October datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Final version v1 - 16 Jan\CarbonEmissionPrediction\data - changed features name\October datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0EE23F-E5F4-4D48-9E38-4B94E40DDE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B73F3A-E949-47B6-B5E5-CF296DCDD92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84CE8326-AF93-461C-8898-13608CF1CF0C}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84CE8326-AF93-461C-8898-13608CF1CF0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -38,93 +27,74 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>Cultivated area (hectares)</t>
-  </si>
-  <si>
-    <t>The amount of animal manure for the above amount of cultivation (tons)</t>
-  </si>
-  <si>
-    <t>The amount of phosphate fertilizer for the amount of the above surface (kg)</t>
-  </si>
-  <si>
-    <t>The amount of potassium fertilizer for the above level (kg)</t>
-  </si>
-  <si>
-    <t>Amount of seed required for the above level (kg)</t>
-  </si>
-  <si>
     <t>Irrigation type</t>
   </si>
   <si>
     <t>Irrigation frequency</t>
   </si>
   <si>
-    <t>Amount of time spent for each irrigation (hours)</t>
+    <t>Cultivated area (hec)</t>
   </si>
   <si>
-    <t>The quantity of vinegar for the above level (kg)</t>
+    <t>Nitrogen (kg)</t>
   </si>
   <si>
-    <t>Amount of toxins needed for the above level (kg)</t>
+    <t>Potassium (kg)</t>
   </si>
   <si>
-    <t>The amount of product harvested from the above level (kilograms)</t>
+    <t>Phosphate (kg)</t>
   </si>
   <si>
-    <t>The amount of fuel for the plow</t>
+    <t>Animal manure (tons)</t>
   </si>
   <si>
-    <t>Amount of fuel for the chisel</t>
+    <t>Seed (kg)</t>
   </si>
   <si>
-    <t>Total Amount of water consumed</t>
+    <t xml:space="preserve"> Irrigation time (hrs)</t>
   </si>
   <si>
-    <t>Total Amount of fuel consumed</t>
+    <t>Vinegar (kg)</t>
   </si>
   <si>
-    <t>Total Amount of Gasoil consumed</t>
+    <t>Toxin (kg)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Total Amount of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF202124"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t>Butan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF202124"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t xml:space="preserve"> consumed(Bout)</t>
-    </r>
+    <t>Yield (kg)</t>
   </si>
   <si>
-    <t>Total Amount of electricity</t>
+    <t>Plughing diesel (lit)</t>
   </si>
   <si>
-    <t>Carbon emission_Cool Farm Tool</t>
+    <t xml:space="preserve"> Chisel diesel (lit)</t>
   </si>
   <si>
-    <t>Amount of nitrogen fertilizer for the above level (kg)</t>
+    <t>Water (m3)</t>
   </si>
   <si>
-    <t>Total of Carbon emission(calculated manually)</t>
+    <t>Diesel (lit)</t>
+  </si>
+  <si>
+    <t>Petrol (lit)</t>
+  </si>
+  <si>
+    <t>Butane (lit)</t>
+  </si>
+  <si>
+    <t>Electricity (kwh)</t>
+  </si>
+  <si>
+    <t>Calculated carbon emission (kg co2-eq)</t>
+  </si>
+  <si>
+    <t>Carbon emission-CFT (kg co2-eq)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,19 +110,8 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="4">
@@ -175,7 +134,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -211,21 +170,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -235,17 +179,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,83 +507,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDA98C9-101B-4429-B197-E15012198F2D}">
   <dimension ref="A1:U210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="20" width="22.88671875" customWidth="1"/>
-    <col min="21" max="21" width="50.21875" customWidth="1"/>
+    <col min="2" max="20" width="22.86328125" customWidth="1"/>
+    <col min="21" max="21" width="50.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="43.95" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:21" ht="44" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1">
+    </row>
+    <row r="2" spans="1:21" ht="14.65" thickBot="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -705,7 +649,7 @@
         <v>11830</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1">
+    <row r="3" spans="1:21" ht="14.65" thickBot="1">
       <c r="A3" s="2">
         <v>0.3</v>
       </c>
@@ -771,7 +715,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1">
+    <row r="4" spans="1:21" ht="14.65" thickBot="1">
       <c r="A4" s="2">
         <v>1.5</v>
       </c>
@@ -837,7 +781,7 @@
         <v>10680</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1">
+    <row r="5" spans="1:21" ht="14.65" thickBot="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -903,7 +847,7 @@
         <v>14050</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1">
+    <row r="6" spans="1:21" ht="14.65" thickBot="1">
       <c r="A6" s="2">
         <v>0.5</v>
       </c>
@@ -969,7 +913,7 @@
         <v>5173</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1">
+    <row r="7" spans="1:21" ht="14.65" thickBot="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1033,7 +977,7 @@
         <v>17310</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1">
+    <row r="8" spans="1:21" ht="14.65" thickBot="1">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -1099,7 +1043,7 @@
         <v>13570</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1">
+    <row r="9" spans="1:21" ht="14.65" thickBot="1">
       <c r="A9" s="2">
         <v>2.5</v>
       </c>
@@ -1165,14 +1109,14 @@
         <v>14130</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1">
+    <row r="10" spans="1:21" ht="14.65" thickBot="1">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="2">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>250</v>
       </c>
       <c r="D10" s="2">
@@ -1231,7 +1175,7 @@
         <v>9310</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1">
+    <row r="11" spans="1:21" ht="14.65" thickBot="1">
       <c r="A11" s="2">
         <v>0.3</v>
       </c>
@@ -1296,7 +1240,7 @@
         <v>2831.8830000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1">
+    <row r="12" spans="1:21" ht="14.65" thickBot="1">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -1363,7 +1307,7 @@
         <v>17935.318000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1">
+    <row r="13" spans="1:21" ht="14.65" thickBot="1">
       <c r="A13" s="2">
         <v>0.5</v>
       </c>
@@ -1428,7 +1372,7 @@
         <v>5860.6789999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1">
+    <row r="14" spans="1:21" ht="14.65" thickBot="1">
       <c r="A14" s="2">
         <v>3.5</v>
       </c>
@@ -1495,7 +1439,7 @@
         <v>23719.184799999999</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1">
+    <row r="15" spans="1:21" ht="14.65" thickBot="1">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -1560,7 +1504,7 @@
         <v>9308.4354000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1">
+    <row r="16" spans="1:21" ht="14.65" thickBot="1">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -1627,7 +1571,7 @@
         <v>39444.745999999992</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1">
+    <row r="17" spans="1:21" ht="14.65" thickBot="1">
       <c r="A17" s="2">
         <v>0.5</v>
       </c>
@@ -1692,7 +1636,7 @@
         <v>6817.859928571429</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1">
+    <row r="18" spans="1:21" ht="14.65" thickBot="1">
       <c r="A18" s="2">
         <v>2.5</v>
       </c>
@@ -1759,7 +1703,7 @@
         <v>21133.331499999997</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1">
+    <row r="19" spans="1:21" ht="14.65" thickBot="1">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -1826,7 +1770,7 @@
         <v>23396.809785714286</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1">
+    <row r="20" spans="1:21" ht="14.65" thickBot="1">
       <c r="A20" s="2">
         <v>0.3</v>
       </c>
@@ -1891,7 +1835,7 @@
         <v>2796.0992999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" thickBot="1">
+    <row r="21" spans="1:21" ht="14.65" thickBot="1">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -1958,7 +1902,7 @@
         <v>9266.4599285714285</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1">
+    <row r="22" spans="1:21" ht="14.65" thickBot="1">
       <c r="A22" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2025,7 +1969,7 @@
         <v>15512.888999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1">
+    <row r="23" spans="1:21" ht="14.65" thickBot="1">
       <c r="A23" s="2">
         <v>5</v>
       </c>
@@ -2092,7 +2036,7 @@
         <v>30653.649642857144</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1">
+    <row r="24" spans="1:21" ht="14.65" thickBot="1">
       <c r="A24" s="2">
         <v>1.7</v>
       </c>
@@ -2159,7 +2103,7 @@
         <v>15940.4028</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" thickBot="1">
+    <row r="25" spans="1:21" ht="14.65" thickBot="1">
       <c r="A25" s="2">
         <v>0.2</v>
       </c>
@@ -2224,7 +2168,7 @@
         <v>1886.2473214285712</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" thickBot="1">
+    <row r="26" spans="1:21" ht="14.65" thickBot="1">
       <c r="A26" s="2">
         <v>1.3</v>
       </c>
@@ -2289,7 +2233,7 @@
         <v>10468.734799999998</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" thickBot="1">
+    <row r="27" spans="1:21" ht="14.65" thickBot="1">
       <c r="A27" s="2">
         <v>3.5</v>
       </c>
@@ -2356,7 +2300,7 @@
         <v>26958.931142857138</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1">
+    <row r="28" spans="1:21" ht="14.65" thickBot="1">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -2423,7 +2367,7 @@
         <v>10270.659928571427</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" thickBot="1">
+    <row r="29" spans="1:21" ht="14.65" thickBot="1">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -2488,7 +2432,7 @@
         <v>17270.312999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15" thickBot="1">
+    <row r="30" spans="1:21" ht="14.65" thickBot="1">
       <c r="A30" s="2">
         <v>4.5</v>
       </c>
@@ -2555,7 +2499,7 @@
         <v>35843.298000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1">
+    <row r="31" spans="1:21" ht="14.65" thickBot="1">
       <c r="A31" s="2">
         <v>5</v>
       </c>
@@ -2622,7 +2566,7 @@
         <v>44039.749642857147</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1">
+    <row r="32" spans="1:21" ht="14.65" thickBot="1">
       <c r="A32" s="2">
         <v>2</v>
       </c>
@@ -2689,7 +2633,7 @@
         <v>17903.0465</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1">
+    <row r="33" spans="1:21" ht="14.65" thickBot="1">
       <c r="A33" s="2">
         <v>1.5</v>
       </c>
@@ -2756,7 +2700,7 @@
         <v>11125.496571428568</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" thickBot="1">
+    <row r="34" spans="1:21" ht="14.65" thickBot="1">
       <c r="A34" s="2">
         <v>0.7</v>
       </c>
@@ -2821,7 +2765,7 @@
         <v>4268.3195714285712</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" thickBot="1">
+    <row r="35" spans="1:21" ht="14.65" thickBot="1">
       <c r="A35" s="2">
         <v>1.5</v>
       </c>
@@ -2888,7 +2832,7 @@
         <v>8860.7697857142848</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" thickBot="1">
+    <row r="36" spans="1:21" ht="14.65" thickBot="1">
       <c r="A36" s="2">
         <v>3.5</v>
       </c>
@@ -2955,7 +2899,7 @@
         <v>30442.164785714285</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1">
+    <row r="37" spans="1:21" ht="14.65" thickBot="1">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -3020,7 +2964,7 @@
         <v>7210.2199285714278</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" thickBot="1">
+    <row r="38" spans="1:21" ht="14.65" thickBot="1">
       <c r="A38" s="2">
         <v>0.4</v>
       </c>
@@ -3083,7 +3027,7 @@
         <v>3028.8244</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" thickBot="1">
+    <row r="39" spans="1:21" ht="14.65" thickBot="1">
       <c r="A39" s="2">
         <v>4</v>
       </c>
@@ -3150,7 +3094,7 @@
         <v>29082.9686</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" thickBot="1">
+    <row r="40" spans="1:21" ht="14.65" thickBot="1">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -3217,7 +3161,7 @@
         <v>9317.1553999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" thickBot="1">
+    <row r="41" spans="1:21" ht="14.65" thickBot="1">
       <c r="A41" s="2">
         <v>0.5</v>
       </c>
@@ -3284,7 +3228,7 @@
         <v>6686.7249285714288</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" thickBot="1">
+    <row r="42" spans="1:21" ht="14.65" thickBot="1">
       <c r="A42" s="2">
         <v>3</v>
       </c>
@@ -3351,7 +3295,7 @@
         <v>30476.123999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15" thickBot="1">
+    <row r="43" spans="1:21" ht="14.65" thickBot="1">
       <c r="A43" s="2">
         <v>3</v>
       </c>
@@ -3418,7 +3362,7 @@
         <v>34912.202857142853</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15" thickBot="1">
+    <row r="44" spans="1:21" ht="14.65" thickBot="1">
       <c r="A44" s="2">
         <v>1.2</v>
       </c>
@@ -3485,7 +3429,7 @@
         <v>12103.4416</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15" thickBot="1">
+    <row r="45" spans="1:21" ht="14.65" thickBot="1">
       <c r="A45" s="2">
         <v>0.5</v>
       </c>
@@ -3552,7 +3496,7 @@
         <v>6538.9066000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15" thickBot="1">
+    <row r="46" spans="1:21" ht="14.65" thickBot="1">
       <c r="A46" s="2">
         <v>0.4</v>
       </c>
@@ -3619,7 +3563,7 @@
         <v>3791.2856428571426</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15" thickBot="1">
+    <row r="47" spans="1:21" ht="14.65" thickBot="1">
       <c r="A47" s="2">
         <v>3</v>
       </c>
@@ -3684,7 +3628,7 @@
         <v>22355.219799999999</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15" thickBot="1">
+    <row r="48" spans="1:21" ht="14.65" thickBot="1">
       <c r="A48" s="2">
         <v>0.5</v>
       </c>
@@ -3749,7 +3693,7 @@
         <v>5347.6782857142844</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15" thickBot="1">
+    <row r="49" spans="1:21" ht="14.65" thickBot="1">
       <c r="A49" s="2">
         <v>0.3</v>
       </c>
@@ -3812,7 +3756,7 @@
         <v>2765.6183000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="15" thickBot="1">
+    <row r="50" spans="1:21" ht="14.65" thickBot="1">
       <c r="A50" s="2">
         <v>0.3</v>
       </c>
@@ -3877,7 +3821,7 @@
         <v>1763.1413</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="15" thickBot="1">
+    <row r="51" spans="1:21" ht="14.65" thickBot="1">
       <c r="A51" s="2">
         <v>0.5</v>
       </c>
@@ -3944,7 +3888,7 @@
         <v>6039.4415714285715</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15" thickBot="1">
+    <row r="52" spans="1:21" ht="14.65" thickBot="1">
       <c r="A52" s="2">
         <v>0.4</v>
       </c>
@@ -4009,7 +3953,7 @@
         <v>3523.5819285714283</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15" thickBot="1">
+    <row r="53" spans="1:21" ht="14.65" thickBot="1">
       <c r="A53" s="2">
         <v>0.5</v>
       </c>
@@ -4074,7 +4018,7 @@
         <v>4747.0232499999993</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="15" thickBot="1">
+    <row r="54" spans="1:21" ht="14.65" thickBot="1">
       <c r="A54" s="2">
         <v>0.5</v>
       </c>
@@ -4139,7 +4083,7 @@
         <v>4112.296571428571</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="15" thickBot="1">
+    <row r="55" spans="1:21" ht="14.65" thickBot="1">
       <c r="A55" s="2">
         <v>0.6</v>
       </c>
@@ -4204,7 +4148,7 @@
         <v>4127.970571428571</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="15" thickBot="1">
+    <row r="56" spans="1:21" ht="14.65" thickBot="1">
       <c r="A56" s="2">
         <v>0.3</v>
       </c>
@@ -4269,7 +4213,7 @@
         <v>3030.3052857142861</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="15" thickBot="1">
+    <row r="57" spans="1:21" ht="14.65" thickBot="1">
       <c r="A57" s="2">
         <v>0.8</v>
       </c>
@@ -4336,7 +4280,7 @@
         <v>7627.4492142857125</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="15" thickBot="1">
+    <row r="58" spans="1:21" ht="14.65" thickBot="1">
       <c r="A58" s="2">
         <v>0.5</v>
       </c>
@@ -4403,7 +4347,7 @@
         <v>2874.1132857142857</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="15" thickBot="1">
+    <row r="59" spans="1:21" ht="14.65" thickBot="1">
       <c r="A59" s="2">
         <v>0.3</v>
       </c>
@@ -4468,7 +4412,7 @@
         <v>1462.1343214285712</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="15" thickBot="1">
+    <row r="60" spans="1:21" ht="14.65" thickBot="1">
       <c r="A60" s="2">
         <v>0.5</v>
       </c>
@@ -4535,7 +4479,7 @@
         <v>5947.1338000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="15" thickBot="1">
+    <row r="61" spans="1:21" ht="14.65" thickBot="1">
       <c r="A61" s="2">
         <v>0.5</v>
       </c>
@@ -4600,7 +4544,7 @@
         <v>5008.6065714285714</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15" thickBot="1">
+    <row r="62" spans="1:21" ht="14.65" thickBot="1">
       <c r="A62" s="2">
         <v>0.5</v>
       </c>
@@ -4667,7 +4611,7 @@
         <v>5245.0182857142845</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="15" thickBot="1">
+    <row r="63" spans="1:21" ht="14.65" thickBot="1">
       <c r="A63" s="2">
         <v>1.5</v>
       </c>
@@ -4734,7 +4678,7 @@
         <v>8169.0132142857146</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="15" thickBot="1">
+    <row r="64" spans="1:21" ht="14.65" thickBot="1">
       <c r="A64" s="2">
         <v>0.7</v>
       </c>
@@ -4801,7 +4745,7 @@
         <v>8909.6288571428577</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="15" thickBot="1">
+    <row r="65" spans="1:21" ht="14.65" thickBot="1">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -4868,7 +4812,7 @@
         <v>10251.239928571427</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="15" thickBot="1">
+    <row r="66" spans="1:21" ht="14.65" thickBot="1">
       <c r="A66" s="2">
         <v>2</v>
       </c>
@@ -4935,7 +4879,7 @@
         <v>19893.719642857141</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="15" thickBot="1">
+    <row r="67" spans="1:21" ht="14.65" thickBot="1">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -5000,7 +4944,7 @@
         <v>11625.186500000002</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="15" thickBot="1">
+    <row r="68" spans="1:21" ht="14.65" thickBot="1">
       <c r="A68" s="2">
         <v>0.5</v>
       </c>
@@ -5065,7 +5009,7 @@
         <v>3962.6465714285714</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="15" thickBot="1">
+    <row r="69" spans="1:21" ht="14.65" thickBot="1">
       <c r="A69" s="2">
         <v>0.3</v>
       </c>
@@ -5130,7 +5074,7 @@
         <v>3043.2382857142857</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="15" thickBot="1">
+    <row r="70" spans="1:21" ht="14.65" thickBot="1">
       <c r="A70" s="2">
         <v>0.5</v>
       </c>
@@ -5195,7 +5139,7 @@
         <v>6988.2865714285717</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="15" thickBot="1">
+    <row r="71" spans="1:21" ht="14.65" thickBot="1">
       <c r="A71" s="2">
         <v>0.5</v>
       </c>
@@ -5258,7 +5202,7 @@
         <v>5818.9638000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="15" thickBot="1">
+    <row r="72" spans="1:21" ht="14.65" thickBot="1">
       <c r="A72" s="2">
         <v>3</v>
       </c>
@@ -5323,7 +5267,7 @@
         <v>22807.492857142854</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="15" thickBot="1">
+    <row r="73" spans="1:21" ht="14.65" thickBot="1">
       <c r="A73" s="2">
         <v>1</v>
       </c>
@@ -5388,7 +5332,7 @@
         <v>7846.8265000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="15" thickBot="1">
+    <row r="74" spans="1:21" ht="14.65" thickBot="1">
       <c r="A74" s="2">
         <v>1.5</v>
       </c>
@@ -5455,7 +5399,7 @@
         <v>17045.539785714285</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="15" thickBot="1">
+    <row r="75" spans="1:21" ht="14.65" thickBot="1">
       <c r="A75" s="2">
         <v>0.3</v>
       </c>
@@ -5518,7 +5462,7 @@
         <v>2590.1366428571423</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="15" thickBot="1">
+    <row r="76" spans="1:21" ht="14.65" thickBot="1">
       <c r="A76" s="2">
         <v>2</v>
       </c>
@@ -5585,7 +5529,7 @@
         <v>15027.282999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="15" thickBot="1">
+    <row r="77" spans="1:21" ht="14.65" thickBot="1">
       <c r="A77" s="2">
         <v>1.5</v>
       </c>
@@ -5652,7 +5596,7 @@
         <v>9198.8782142857126</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="15" thickBot="1">
+    <row r="78" spans="1:21" ht="14.65" thickBot="1">
       <c r="A78" s="2">
         <v>1</v>
       </c>
@@ -5717,7 +5661,7 @@
         <v>11658.596500000001</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="15" thickBot="1">
+    <row r="79" spans="1:21" ht="14.65" thickBot="1">
       <c r="A79" s="2">
         <v>1</v>
       </c>
@@ -5784,7 +5728,7 @@
         <v>7041.1799285714287</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="15" thickBot="1">
+    <row r="80" spans="1:21" ht="14.65" thickBot="1">
       <c r="A80" s="2">
         <v>2</v>
       </c>
@@ -5851,7 +5795,7 @@
         <v>18870.726500000001</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="15" thickBot="1">
+    <row r="81" spans="1:21" ht="14.65" thickBot="1">
       <c r="A81" s="2">
         <v>5</v>
       </c>
@@ -5918,7 +5862,7 @@
         <v>27360.499642857143</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="15" thickBot="1">
+    <row r="82" spans="1:21" ht="14.65" thickBot="1">
       <c r="A82" s="2">
         <v>0.5</v>
       </c>
@@ -5985,7 +5929,7 @@
         <v>5317.9432857142847</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="15" thickBot="1">
+    <row r="83" spans="1:21" ht="14.65" thickBot="1">
       <c r="A83" s="2">
         <v>1.2</v>
       </c>
@@ -6052,7 +5996,7 @@
         <v>8270.3237000000008</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="15" thickBot="1">
+    <row r="84" spans="1:21" ht="14.65" thickBot="1">
       <c r="A84" s="2">
         <v>3.5</v>
       </c>
@@ -6119,7 +6063,7 @@
         <v>31536.371428571427</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="15" thickBot="1">
+    <row r="85" spans="1:21" ht="14.65" thickBot="1">
       <c r="A85" s="2">
         <v>3</v>
       </c>
@@ -6186,7 +6130,7 @@
         <v>22771.779499999997</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="15" thickBot="1">
+    <row r="86" spans="1:21" ht="14.65" thickBot="1">
       <c r="A86" s="2">
         <v>1</v>
       </c>
@@ -6253,7 +6197,7 @@
         <v>10689.826499999997</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="15" thickBot="1">
+    <row r="87" spans="1:21" ht="14.65" thickBot="1">
       <c r="A87" s="2">
         <v>2.5</v>
       </c>
@@ -6320,7 +6264,7 @@
         <v>18529.331285714285</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="15" thickBot="1">
+    <row r="88" spans="1:21" ht="14.65" thickBot="1">
       <c r="A88" s="2">
         <v>1</v>
       </c>
@@ -6387,7 +6331,7 @@
         <v>9338.5198571428573</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="15" thickBot="1">
+    <row r="89" spans="1:21" ht="14.65" thickBot="1">
       <c r="A89" s="2">
         <v>0.3</v>
       </c>
@@ -6454,7 +6398,7 @@
         <v>3961.0623999999993</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="15" thickBot="1">
+    <row r="90" spans="1:21" ht="14.65" thickBot="1">
       <c r="A90" s="2">
         <v>1.5</v>
       </c>
@@ -6521,7 +6465,7 @@
         <v>10386.634785714286</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="15" thickBot="1">
+    <row r="91" spans="1:21" ht="14.65" thickBot="1">
       <c r="A91" s="2">
         <v>0.5</v>
       </c>
@@ -6588,7 +6532,7 @@
         <v>5797.0965999999989</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="15" thickBot="1">
+    <row r="92" spans="1:21" ht="14.65" thickBot="1">
       <c r="A92" s="2">
         <v>3</v>
       </c>
@@ -6653,7 +6597,7 @@
         <v>20278.5432</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="15" thickBot="1">
+    <row r="93" spans="1:21" ht="14.65" thickBot="1">
       <c r="A93" s="2">
         <v>2</v>
       </c>
@@ -6720,7 +6664,7 @@
         <v>14068.693200000002</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="15" thickBot="1">
+    <row r="94" spans="1:21" ht="14.65" thickBot="1">
       <c r="A94" s="2">
         <v>1</v>
       </c>
@@ -6787,7 +6731,7 @@
         <v>10730.786499999998</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="15" thickBot="1">
+    <row r="95" spans="1:21" ht="14.65" thickBot="1">
       <c r="A95" s="2">
         <v>0.3</v>
       </c>
@@ -6852,7 +6796,7 @@
         <v>3655.8266428571424</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="15" thickBot="1">
+    <row r="96" spans="1:21" ht="14.65" thickBot="1">
       <c r="A96" s="2">
         <v>2</v>
       </c>
@@ -6919,7 +6863,7 @@
         <v>20965.006357142858</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="15" thickBot="1">
+    <row r="97" spans="1:21" ht="14.65" thickBot="1">
       <c r="A97" s="2">
         <v>0.5</v>
       </c>
@@ -6982,7 +6926,7 @@
         <v>4531.8749285714293</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="15" thickBot="1">
+    <row r="98" spans="1:21" ht="14.65" thickBot="1">
       <c r="A98" s="2">
         <v>4</v>
       </c>
@@ -7049,7 +6993,7 @@
         <v>37464.60635714286</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="15" thickBot="1">
+    <row r="99" spans="1:21" ht="14.65" thickBot="1">
       <c r="A99" s="2">
         <v>0.5</v>
       </c>
@@ -7116,7 +7060,7 @@
         <v>5655.9999285714293</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="15" thickBot="1">
+    <row r="100" spans="1:21" ht="14.65" thickBot="1">
       <c r="A100" s="2">
         <v>2.5</v>
       </c>
@@ -7181,7 +7125,7 @@
         <v>10745.056499999999</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="15" thickBot="1">
+    <row r="101" spans="1:21" ht="14.65" thickBot="1">
       <c r="A101" s="2">
         <v>3</v>
       </c>
@@ -7248,7 +7192,7 @@
         <v>31038.382857142853</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="15" thickBot="1">
+    <row r="102" spans="1:21" ht="14.65" thickBot="1">
       <c r="A102" s="2">
         <v>0.3</v>
       </c>
@@ -7313,7 +7257,7 @@
         <v>2297.9886071428568</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="15" thickBot="1">
+    <row r="103" spans="1:21" ht="14.65" thickBot="1">
       <c r="A103" s="2">
         <v>1</v>
       </c>
@@ -7380,7 +7324,7 @@
         <v>10743.046499999999</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="15" thickBot="1">
+    <row r="104" spans="1:21" ht="14.65" thickBot="1">
       <c r="A104" s="2">
         <v>2.5</v>
       </c>
@@ -7447,7 +7391,7 @@
         <v>22489.971500000003</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15" thickBot="1">
+    <row r="105" spans="1:21" ht="14.65" thickBot="1">
       <c r="A105" s="2">
         <v>1.3</v>
       </c>
@@ -7512,7 +7456,7 @@
         <v>11937.541571428568</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="15" thickBot="1">
+    <row r="106" spans="1:21" ht="14.65" thickBot="1">
       <c r="A106" s="2">
         <v>2.5</v>
       </c>
@@ -7579,7 +7523,7 @@
         <v>18529.331285714285</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="15" thickBot="1">
+    <row r="107" spans="1:21" ht="14.65" thickBot="1">
       <c r="A107" s="2">
         <v>0.4</v>
       </c>
@@ -7644,7 +7588,7 @@
         <v>5184.1019285714292</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="15" thickBot="1">
+    <row r="108" spans="1:21" ht="14.65" thickBot="1">
       <c r="A108" s="2">
         <v>0.6</v>
       </c>
@@ -7709,7 +7653,7 @@
         <v>6296.2685714285717</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="15" thickBot="1">
+    <row r="109" spans="1:21" ht="14.65" thickBot="1">
       <c r="A109" s="2">
         <v>1.2</v>
       </c>
@@ -7774,7 +7718,7 @@
         <v>13230.809142857142</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="15" thickBot="1">
+    <row r="110" spans="1:21" ht="14.65" thickBot="1">
       <c r="A110" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -7839,7 +7783,7 @@
         <v>18997.772499999999</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="15" thickBot="1">
+    <row r="111" spans="1:21" ht="14.65" thickBot="1">
       <c r="A111" s="2">
         <v>1.3</v>
       </c>
@@ -7904,7 +7848,7 @@
         <v>10966.649428571427</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="15" thickBot="1">
+    <row r="112" spans="1:21" ht="14.65" thickBot="1">
       <c r="A112" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -7969,7 +7913,7 @@
         <v>18997.772499999999</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="15" thickBot="1">
+    <row r="113" spans="1:21" ht="14.65" thickBot="1">
       <c r="A113" s="2">
         <v>1.2</v>
       </c>
@@ -8034,7 +7978,7 @@
         <v>10893.883142857143</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="15" thickBot="1">
+    <row r="114" spans="1:21" ht="14.65" thickBot="1">
       <c r="A114" s="2">
         <v>0.4</v>
       </c>
@@ -8101,7 +8045,7 @@
         <v>4891.1689285714292</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="15" thickBot="1">
+    <row r="115" spans="1:21" ht="14.65" thickBot="1">
       <c r="A115" s="2">
         <v>0.2</v>
       </c>
@@ -8166,7 +8110,7 @@
         <v>1886.2473214285712</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="15" thickBot="1">
+    <row r="116" spans="1:21" ht="14.65" thickBot="1">
       <c r="A116" s="2">
         <v>2.5</v>
       </c>
@@ -8233,7 +8177,7 @@
         <v>22623.621500000001</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="15" thickBot="1">
+    <row r="117" spans="1:21" ht="14.65" thickBot="1">
       <c r="A117" s="2">
         <v>1.2</v>
       </c>
@@ -8296,7 +8240,7 @@
         <v>8976.1451428571436</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="15" thickBot="1">
+    <row r="118" spans="1:21" ht="14.65" thickBot="1">
       <c r="A118" s="2">
         <v>0.8</v>
       </c>
@@ -8363,7 +8307,7 @@
         <v>7493.7992142857129</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="15" thickBot="1">
+    <row r="119" spans="1:21" ht="14.65" thickBot="1">
       <c r="A119" s="2">
         <v>2.5</v>
       </c>
@@ -8428,7 +8372,7 @@
         <v>20776.3315</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="15" thickBot="1">
+    <row r="120" spans="1:21" ht="14.65" thickBot="1">
       <c r="A120" s="2">
         <v>2</v>
       </c>
@@ -8495,7 +8439,7 @@
         <v>17887.5465</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="15" thickBot="1">
+    <row r="121" spans="1:21" ht="14.65" thickBot="1">
       <c r="A121" s="2">
         <v>1</v>
       </c>
@@ -8562,7 +8506,7 @@
         <v>10673.666499999999</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="15" thickBot="1">
+    <row r="122" spans="1:21" ht="14.65" thickBot="1">
       <c r="A122" s="2">
         <v>2.5</v>
       </c>
@@ -8629,7 +8573,7 @@
         <v>25154.972928571431</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="15" thickBot="1">
+    <row r="123" spans="1:21" ht="14.65" thickBot="1">
       <c r="A123" s="2">
         <v>1.5</v>
       </c>
@@ -8694,7 +8638,7 @@
         <v>11314.056428571428</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="15" thickBot="1">
+    <row r="124" spans="1:21" ht="14.65" thickBot="1">
       <c r="A124" s="2">
         <v>0.8</v>
       </c>
@@ -8759,7 +8703,7 @@
         <v>8678.2892142857145</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="15" thickBot="1">
+    <row r="125" spans="1:21" ht="14.65" thickBot="1">
       <c r="A125" s="2">
         <v>2.5</v>
       </c>
@@ -8826,7 +8770,7 @@
         <v>18018.066500000001</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="15" thickBot="1">
+    <row r="126" spans="1:21" ht="14.65" thickBot="1">
       <c r="A126" s="2">
         <v>1.5</v>
       </c>
@@ -8891,7 +8835,7 @@
         <v>11191.329785714286</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="15" thickBot="1">
+    <row r="127" spans="1:21" ht="14.65" thickBot="1">
       <c r="A127" s="2">
         <v>3</v>
       </c>
@@ -8956,7 +8900,7 @@
         <v>26947.826142857142</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="15" thickBot="1">
+    <row r="128" spans="1:21" ht="14.65" thickBot="1">
       <c r="A128" s="2">
         <v>5</v>
       </c>
@@ -9023,7 +8967,7 @@
         <v>34646.369642857142</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="15" thickBot="1">
+    <row r="129" spans="1:21" ht="14.65" thickBot="1">
       <c r="A129" s="2">
         <v>0.6</v>
       </c>
@@ -9088,7 +9032,7 @@
         <v>6695.6449285714289</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="15" thickBot="1">
+    <row r="130" spans="1:21" ht="14.65" thickBot="1">
       <c r="A130" s="2">
         <v>0.7</v>
       </c>
@@ -9155,7 +9099,7 @@
         <v>8882.8988571428581</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="15" thickBot="1">
+    <row r="131" spans="1:21" ht="14.65" thickBot="1">
       <c r="A131" s="2">
         <v>0.8</v>
       </c>
@@ -9222,7 +9166,7 @@
         <v>7627.4492142857125</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="15" thickBot="1">
+    <row r="132" spans="1:21" ht="14.65" thickBot="1">
       <c r="A132" s="2">
         <v>1.2</v>
       </c>
@@ -9289,7 +9233,7 @@
         <v>12049.981600000001</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="15" thickBot="1">
+    <row r="133" spans="1:21" ht="14.65" thickBot="1">
       <c r="A133" s="2">
         <v>1.3</v>
       </c>
@@ -9354,7 +9298,7 @@
         <v>11857.35157142857</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="15" thickBot="1">
+    <row r="134" spans="1:21" ht="14.65" thickBot="1">
       <c r="A134" s="2">
         <v>1.7</v>
       </c>
@@ -9421,7 +9365,7 @@
         <v>16020.5928</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="15" thickBot="1">
+    <row r="135" spans="1:21" ht="14.65" thickBot="1">
       <c r="A135" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -9488,7 +9432,7 @@
         <v>15512.888999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="15" thickBot="1">
+    <row r="136" spans="1:21" ht="14.65" thickBot="1">
       <c r="A136" s="2">
         <v>2.5</v>
       </c>
@@ -9553,7 +9497,7 @@
         <v>20776.3315</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="15" thickBot="1">
+    <row r="137" spans="1:21" ht="14.65" thickBot="1">
       <c r="A137" s="2">
         <v>0.2</v>
       </c>
@@ -9618,7 +9562,7 @@
         <v>1886.2473214285712</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="15" thickBot="1">
+    <row r="138" spans="1:21" ht="14.65" thickBot="1">
       <c r="A138" s="2">
         <v>1</v>
       </c>
@@ -9685,7 +9629,7 @@
         <v>10673.666499999999</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="15" thickBot="1">
+    <row r="139" spans="1:21" ht="14.65" thickBot="1">
       <c r="A139" s="2">
         <v>5</v>
       </c>
@@ -9752,7 +9696,7 @@
         <v>34646.369642857142</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="15" thickBot="1">
+    <row r="140" spans="1:21" ht="14.65" thickBot="1">
       <c r="A140" s="2">
         <v>1.5</v>
       </c>
@@ -9817,7 +9761,7 @@
         <v>11314.056428571428</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="15" thickBot="1">
+    <row r="141" spans="1:21" ht="14.65" thickBot="1">
       <c r="A141" s="2">
         <v>0.4</v>
       </c>
@@ -9884,7 +9828,7 @@
         <v>4381.5256071428576</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="15" thickBot="1">
+    <row r="142" spans="1:21" ht="14.65" thickBot="1">
       <c r="A142" s="2">
         <v>3</v>
       </c>
@@ -9949,7 +9893,7 @@
         <v>19925.960999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="15" thickBot="1">
+    <row r="143" spans="1:21" ht="14.65" thickBot="1">
       <c r="A143" s="2">
         <v>1</v>
       </c>
@@ -10016,7 +9960,7 @@
         <v>10232.938750000001</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="15" thickBot="1">
+    <row r="144" spans="1:21" ht="14.65" thickBot="1">
       <c r="A144" s="2">
         <v>0.4</v>
       </c>
@@ -10083,7 +10027,7 @@
         <v>4381.5256071428576</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="15" thickBot="1">
+    <row r="145" spans="1:21" ht="14.65" thickBot="1">
       <c r="A145" s="2">
         <v>3</v>
       </c>
@@ -10150,7 +10094,7 @@
         <v>29300.85</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="15" thickBot="1">
+    <row r="146" spans="1:21" ht="14.65" thickBot="1">
       <c r="A146" s="2">
         <v>1.5</v>
       </c>
@@ -10217,7 +10161,7 @@
         <v>8750.4226785714272</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="15" thickBot="1">
+    <row r="147" spans="1:21" ht="14.65" thickBot="1">
       <c r="A147" s="2">
         <v>2</v>
       </c>
@@ -10284,7 +10228,7 @@
         <v>19509.771964285716</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="15" thickBot="1">
+    <row r="148" spans="1:21" ht="14.65" thickBot="1">
       <c r="A148" s="2">
         <v>2.5</v>
       </c>
@@ -10351,7 +10295,7 @@
         <v>17521.95357142857</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="15" thickBot="1">
+    <row r="149" spans="1:21" ht="14.65" thickBot="1">
       <c r="A149" s="2">
         <v>3.5</v>
       </c>
@@ -10416,7 +10360,7 @@
         <v>22396.140000000003</v>
       </c>
     </row>
-    <row r="150" spans="1:21" ht="15" thickBot="1">
+    <row r="150" spans="1:21" ht="14.65" thickBot="1">
       <c r="A150" s="2">
         <v>4.5</v>
       </c>
@@ -10483,7 +10427,7 @@
         <v>46144.86357142857</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="15" thickBot="1">
+    <row r="151" spans="1:21" ht="14.65" thickBot="1">
       <c r="A151" s="2">
         <v>4</v>
       </c>
@@ -10550,7 +10494,7 @@
         <v>34557.370857142858</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="15" thickBot="1">
+    <row r="152" spans="1:21" ht="14.65" thickBot="1">
       <c r="A152" s="2">
         <v>5</v>
       </c>
@@ -10617,7 +10561,7 @@
         <v>33701.953035714279</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="15" thickBot="1">
+    <row r="153" spans="1:21" ht="14.65" thickBot="1">
       <c r="A153" s="2">
         <v>1.2</v>
       </c>
@@ -10684,7 +10628,7 @@
         <v>8064.6507499999998</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="15" thickBot="1">
+    <row r="154" spans="1:21" ht="14.65" thickBot="1">
       <c r="A154" s="2">
         <v>3</v>
       </c>
@@ -10749,7 +10693,7 @@
         <v>21692.696500000002</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="15" thickBot="1">
+    <row r="155" spans="1:21" ht="14.65" thickBot="1">
       <c r="A155" s="2">
         <v>1</v>
       </c>
@@ -10814,7 +10758,7 @@
         <v>8212.4721428571429</v>
       </c>
     </row>
-    <row r="156" spans="1:21" ht="15" thickBot="1">
+    <row r="156" spans="1:21" ht="14.65" thickBot="1">
       <c r="A156" s="2">
         <v>1.5</v>
       </c>
@@ -10879,7 +10823,7 @@
         <v>10684.445357142857</v>
       </c>
     </row>
-    <row r="157" spans="1:21" ht="15" thickBot="1">
+    <row r="157" spans="1:21" ht="14.65" thickBot="1">
       <c r="A157" s="2">
         <v>0.4</v>
       </c>
@@ -10942,7 +10886,7 @@
         <v>2911.297</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="15" thickBot="1">
+    <row r="158" spans="1:21" ht="14.65" thickBot="1">
       <c r="A158" s="2">
         <v>1.3</v>
       </c>
@@ -11009,7 +10953,7 @@
         <v>7890.8152857142841</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="15" thickBot="1">
+    <row r="159" spans="1:21" ht="14.65" thickBot="1">
       <c r="A159" s="2">
         <v>0.5</v>
       </c>
@@ -11076,7 +11020,7 @@
         <v>5620.8054999999995</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="15" thickBot="1">
+    <row r="160" spans="1:21" ht="14.65" thickBot="1">
       <c r="A160" s="2">
         <v>3</v>
       </c>
@@ -11141,7 +11085,7 @@
         <v>24306.719999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="15" thickBot="1">
+    <row r="161" spans="1:21" ht="14.65" thickBot="1">
       <c r="A161" s="2">
         <v>2.5</v>
       </c>
@@ -11208,7 +11152,7 @@
         <v>20830.103749999998</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="15" thickBot="1">
+    <row r="162" spans="1:21" ht="14.65" thickBot="1">
       <c r="A162" s="2">
         <v>0.2</v>
       </c>
@@ -11271,7 +11215,7 @@
         <v>1832.9750714285713</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="15" thickBot="1">
+    <row r="163" spans="1:21" ht="14.65" thickBot="1">
       <c r="A163" s="2">
         <v>1</v>
       </c>
@@ -11338,7 +11282,7 @@
         <v>10081.779499999999</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="15" thickBot="1">
+    <row r="164" spans="1:21" ht="14.65" thickBot="1">
       <c r="A164" s="2">
         <v>3</v>
       </c>
@@ -11401,7 +11345,7 @@
         <v>19658.660999999996</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="15" thickBot="1">
+    <row r="165" spans="1:21" ht="14.65" thickBot="1">
       <c r="A165" s="2">
         <v>4.5</v>
       </c>
@@ -11468,7 +11412,7 @@
         <v>46144.86357142857</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="15" thickBot="1">
+    <row r="166" spans="1:21" ht="14.65" thickBot="1">
       <c r="A166" s="2">
         <v>3.5</v>
       </c>
@@ -11531,7 +11475,7 @@
         <v>22396.140000000003</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="15" thickBot="1">
+    <row r="167" spans="1:21" ht="14.65" thickBot="1">
       <c r="A167" s="2">
         <v>1</v>
       </c>
@@ -11598,7 +11542,7 @@
         <v>10333.578750000001</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="15" thickBot="1">
+    <row r="168" spans="1:21" ht="14.65" thickBot="1">
       <c r="A168" s="2">
         <v>0.3</v>
       </c>
@@ -11663,7 +11607,7 @@
         <v>3843.5349999999994</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="15" thickBot="1">
+    <row r="169" spans="1:21" ht="14.65" thickBot="1">
       <c r="A169" s="2">
         <v>1.5</v>
       </c>
@@ -11730,7 +11674,7 @@
         <v>9819.9848214285721</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="15" thickBot="1">
+    <row r="170" spans="1:21" ht="14.65" thickBot="1">
       <c r="A170" s="2">
         <v>2</v>
       </c>
@@ -11797,7 +11741,7 @@
         <v>14938.6805</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="15" thickBot="1">
+    <row r="171" spans="1:21" ht="14.65" thickBot="1">
       <c r="A171" s="2">
         <v>0.5</v>
       </c>
@@ -11862,7 +11806,7 @@
         <v>5557.8443928571414</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="15" thickBot="1">
+    <row r="172" spans="1:21" ht="14.65" thickBot="1">
       <c r="A172" s="2">
         <v>2</v>
       </c>
@@ -11927,7 +11871,7 @@
         <v>16388.857499999998</v>
       </c>
     </row>
-    <row r="173" spans="1:21" ht="15" thickBot="1">
+    <row r="173" spans="1:21" ht="14.65" thickBot="1">
       <c r="A173" s="2">
         <v>4.5</v>
       </c>
@@ -11994,7 +11938,7 @@
         <v>34961.842500000006</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="15" thickBot="1">
+    <row r="174" spans="1:21" ht="14.65" thickBot="1">
       <c r="A174" s="2">
         <v>1.5</v>
       </c>
@@ -12061,7 +12005,7 @@
         <v>11794.242142857142</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="15" thickBot="1">
+    <row r="175" spans="1:21" ht="14.65" thickBot="1">
       <c r="A175" s="2">
         <v>0.5</v>
       </c>
@@ -12126,7 +12070,7 @@
         <v>3716.3983214285713</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="15" thickBot="1">
+    <row r="176" spans="1:21" ht="14.65" thickBot="1">
       <c r="A176" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -12191,7 +12135,7 @@
         <v>10579.263499999999</v>
       </c>
     </row>
-    <row r="177" spans="1:21" ht="15" thickBot="1">
+    <row r="177" spans="1:21" ht="14.65" thickBot="1">
       <c r="A177" s="2">
         <v>0.5</v>
       </c>
@@ -12256,7 +12200,7 @@
         <v>5467.1166071428579</v>
       </c>
     </row>
-    <row r="178" spans="1:21" ht="15" thickBot="1">
+    <row r="178" spans="1:21" ht="14.65" thickBot="1">
       <c r="A178" s="2">
         <v>2.5</v>
       </c>
@@ -12319,7 +12263,7 @@
         <v>10304.328750000001</v>
       </c>
     </row>
-    <row r="179" spans="1:21" ht="15" thickBot="1">
+    <row r="179" spans="1:21" ht="14.65" thickBot="1">
       <c r="A179" s="2">
         <v>3</v>
       </c>
@@ -12386,7 +12330,7 @@
         <v>29779.160714285714</v>
       </c>
     </row>
-    <row r="180" spans="1:21" ht="15" thickBot="1">
+    <row r="180" spans="1:21" ht="14.65" thickBot="1">
       <c r="A180" s="2">
         <v>0.3</v>
       </c>
@@ -12449,7 +12393,7 @@
         <v>2140.585839285714</v>
       </c>
     </row>
-    <row r="181" spans="1:21" ht="15" thickBot="1">
+    <row r="181" spans="1:21" ht="14.65" thickBot="1">
       <c r="A181" s="2">
         <v>1</v>
       </c>
@@ -12514,7 +12458,7 @@
         <v>10302.318749999999</v>
       </c>
     </row>
-    <row r="182" spans="1:21" ht="15" thickBot="1">
+    <row r="182" spans="1:21" ht="14.65" thickBot="1">
       <c r="A182" s="2">
         <v>0.2</v>
       </c>
@@ -12577,7 +12521,7 @@
         <v>1854.7667678571429</v>
       </c>
     </row>
-    <row r="183" spans="1:21" ht="15" thickBot="1">
+    <row r="183" spans="1:21" ht="14.65" thickBot="1">
       <c r="A183" s="2">
         <v>2.5</v>
       </c>
@@ -12644,7 +12588,7 @@
         <v>22049.243750000005</v>
       </c>
     </row>
-    <row r="184" spans="1:21" ht="15" thickBot="1">
+    <row r="184" spans="1:21" ht="14.65" thickBot="1">
       <c r="A184" s="2">
         <v>1.2</v>
       </c>
@@ -12705,7 +12649,7 @@
         <v>8472.4562857142846</v>
       </c>
     </row>
-    <row r="185" spans="1:21" ht="15" thickBot="1">
+    <row r="185" spans="1:21" ht="14.65" thickBot="1">
       <c r="A185" s="2">
         <v>1</v>
       </c>
@@ -12770,7 +12714,7 @@
         <v>10232.938750000001</v>
       </c>
     </row>
-    <row r="186" spans="1:21" ht="15" thickBot="1">
+    <row r="186" spans="1:21" ht="14.65" thickBot="1">
       <c r="A186" s="2">
         <v>2.5</v>
       </c>
@@ -12837,7 +12781,7 @@
         <v>23950.984107142856</v>
       </c>
     </row>
-    <row r="187" spans="1:21" ht="15" thickBot="1">
+    <row r="187" spans="1:21" ht="14.65" thickBot="1">
       <c r="A187" s="2">
         <v>1.5</v>
       </c>
@@ -12900,7 +12844,7 @@
         <v>10684.445357142857</v>
       </c>
     </row>
-    <row r="188" spans="1:21" ht="15" thickBot="1">
+    <row r="188" spans="1:21" ht="14.65" thickBot="1">
       <c r="A188" s="2">
         <v>0.8</v>
       </c>
@@ -12963,7 +12907,7 @@
         <v>8363.4836785714288</v>
       </c>
     </row>
-    <row r="189" spans="1:21" ht="15" thickBot="1">
+    <row r="189" spans="1:21" ht="14.65" thickBot="1">
       <c r="A189" s="2">
         <v>2.5</v>
       </c>
@@ -13028,7 +12972,7 @@
         <v>17577.338749999999</v>
       </c>
     </row>
-    <row r="190" spans="1:21" ht="15" thickBot="1">
+    <row r="190" spans="1:21" ht="14.65" thickBot="1">
       <c r="A190" s="2">
         <v>3</v>
       </c>
@@ -13095,7 +13039,7 @@
         <v>29300.85</v>
       </c>
     </row>
-    <row r="191" spans="1:21" ht="15" thickBot="1">
+    <row r="191" spans="1:21" ht="14.65" thickBot="1">
       <c r="A191" s="2">
         <v>1.5</v>
       </c>
@@ -13160,7 +13104,7 @@
         <v>8750.4226785714272</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="15" thickBot="1">
+    <row r="192" spans="1:21" ht="14.65" thickBot="1">
       <c r="A192" s="2">
         <v>2</v>
       </c>
@@ -13225,7 +13169,7 @@
         <v>19509.771964285716</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="15" thickBot="1">
+    <row r="193" spans="1:21" ht="14.65" thickBot="1">
       <c r="A193" s="2">
         <v>2.5</v>
       </c>
@@ -13290,7 +13234,7 @@
         <v>17521.95357142857</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="15" thickBot="1">
+    <row r="194" spans="1:21" ht="14.65" thickBot="1">
       <c r="A194" s="2">
         <v>0.3</v>
       </c>
@@ -13355,7 +13299,7 @@
         <v>3843.5349999999994</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="15" thickBot="1">
+    <row r="195" spans="1:21" ht="14.65" thickBot="1">
       <c r="A195" s="2">
         <v>2</v>
       </c>
@@ -13422,7 +13366,7 @@
         <v>14938.6805</v>
       </c>
     </row>
-    <row r="196" spans="1:21" ht="15" thickBot="1">
+    <row r="196" spans="1:21" ht="14.65" thickBot="1">
       <c r="A196" s="2">
         <v>1</v>
       </c>
@@ -13485,7 +13429,7 @@
         <v>9156.8887500000001</v>
       </c>
     </row>
-    <row r="197" spans="1:21" ht="15" thickBot="1">
+    <row r="197" spans="1:21" ht="14.65" thickBot="1">
       <c r="A197" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -13550,7 +13494,7 @@
         <v>14631.433499999999</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="15" thickBot="1">
+    <row r="198" spans="1:21" ht="14.65" thickBot="1">
       <c r="A198" s="2">
         <v>4.5</v>
       </c>
@@ -13617,7 +13561,7 @@
         <v>34961.842500000006</v>
       </c>
     </row>
-    <row r="199" spans="1:21" ht="15" thickBot="1">
+    <row r="199" spans="1:21" ht="14.65" thickBot="1">
       <c r="A199" s="2">
         <v>1</v>
       </c>
@@ -13682,7 +13626,7 @@
         <v>10232.938750000001</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="15" thickBot="1">
+    <row r="200" spans="1:21" ht="14.65" thickBot="1">
       <c r="A200" s="2">
         <v>2.5</v>
       </c>
@@ -13749,7 +13693,7 @@
         <v>23950.984107142856</v>
       </c>
     </row>
-    <row r="201" spans="1:21" ht="15" thickBot="1">
+    <row r="201" spans="1:21" ht="14.65" thickBot="1">
       <c r="A201" s="2">
         <v>1.2</v>
       </c>
@@ -13814,7 +13758,7 @@
         <v>8064.6507499999998</v>
       </c>
     </row>
-    <row r="202" spans="1:21" ht="15" thickBot="1">
+    <row r="202" spans="1:21" ht="14.65" thickBot="1">
       <c r="A202" s="2">
         <v>1</v>
       </c>
@@ -13875,7 +13819,7 @@
         <v>5299.5966428571428</v>
       </c>
     </row>
-    <row r="203" spans="1:21" ht="15" thickBot="1">
+    <row r="203" spans="1:21" ht="14.65" thickBot="1">
       <c r="A203" s="2">
         <v>0.3</v>
       </c>
@@ -13936,7 +13880,7 @@
         <v>1417.8463214285712</v>
       </c>
     </row>
-    <row r="204" spans="1:21" ht="15" thickBot="1">
+    <row r="204" spans="1:21" ht="14.65" thickBot="1">
       <c r="A204" s="2">
         <v>1.2</v>
       </c>
@@ -13999,7 +13943,7 @@
         <v>10390.194285714284</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="15" thickBot="1">
+    <row r="205" spans="1:21" ht="14.65" thickBot="1">
       <c r="A205" s="2">
         <v>0.4</v>
       </c>
@@ -14064,7 +14008,7 @@
         <v>4381.5256071428576</v>
       </c>
     </row>
-    <row r="206" spans="1:21" ht="15" thickBot="1">
+    <row r="206" spans="1:21" ht="14.65" thickBot="1">
       <c r="A206" s="2">
         <v>5</v>
       </c>
@@ -14131,7 +14075,7 @@
         <v>33701.953035714279</v>
       </c>
     </row>
-    <row r="207" spans="1:21" ht="15" thickBot="1">
+    <row r="207" spans="1:21" ht="14.65" thickBot="1">
       <c r="A207" s="2">
         <v>0.8</v>
       </c>
@@ -14196,7 +14140,7 @@
         <v>7178.9936785714281</v>
       </c>
     </row>
-    <row r="208" spans="1:21" ht="15" thickBot="1">
+    <row r="208" spans="1:21" ht="14.65" thickBot="1">
       <c r="A208" s="2">
         <v>4</v>
       </c>
@@ -14263,7 +14207,7 @@
         <v>34557.370857142858</v>
       </c>
     </row>
-    <row r="209" spans="1:21" ht="15" thickBot="1">
+    <row r="209" spans="1:21" ht="14.65" thickBot="1">
       <c r="A209" s="2">
         <v>1</v>
       </c>
@@ -14326,7 +14270,7 @@
         <v>7021.3366071428563</v>
       </c>
     </row>
-    <row r="210" spans="1:21" ht="15" thickBot="1">
+    <row r="210" spans="1:21" ht="14.65" thickBot="1">
       <c r="A210" s="2">
         <v>0.4</v>
       </c>
